--- a/requirements and planning/burndown_Bas-1-Azfar.xlsx
+++ b/requirements and planning/burndown_Bas-1-Azfar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BAS\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E9AAD8-CE27-4C77-8EEC-CF0A89086E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F2B37-12DE-4ABE-B3FD-E2B754886A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t>Taak</t>
   </si>
@@ -639,16 +639,16 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2226,8 +2226,8 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
+      <c r="F16" s="2">
+        <v>2</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -2243,8 +2243,8 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
+      <c r="F17" s="2">
+        <v>2</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -2429,32 +2429,32 @@
         <v>51</v>
       </c>
       <c r="C28" s="9">
-        <f>B$28-SUM(C3:C27)</f>
+        <f t="shared" ref="C28:I28" si="0">B$28-SUM(C3:C27)</f>
         <v>41</v>
       </c>
       <c r="D28" s="9">
-        <f>C$28-SUM(D3:D27)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E28" s="9">
-        <f>D$28-SUM(E3:E27)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="F28" s="9">
-        <f>E$28-SUM(F3:F27)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="G28" s="9">
-        <f>F$28-SUM(G3:G27)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="H28" s="9">
-        <f>G$28-SUM(H3:H27)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="I28" s="10">
-        <f>H$28-SUM(I3:I27)</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2466,31 +2466,31 @@
         <v>51</v>
       </c>
       <c r="C29" s="13">
-        <f>B$29-$B$29/COUNT($C$1:$I$1)</f>
+        <f t="shared" ref="C29:I29" si="1">B$29-$B$29/COUNT($C$1:$I$1)</f>
         <v>43.714285714285715</v>
       </c>
       <c r="D29" s="13">
-        <f>C$29-$B$29/COUNT($C$1:$I$1)</f>
+        <f t="shared" si="1"/>
         <v>36.428571428571431</v>
       </c>
       <c r="E29" s="13">
-        <f>D$29-$B$29/COUNT($C$1:$I$1)</f>
+        <f t="shared" si="1"/>
         <v>29.142857142857146</v>
       </c>
       <c r="F29" s="13">
-        <f>E$29-$B$29/COUNT($C$1:$I$1)</f>
+        <f t="shared" si="1"/>
         <v>21.857142857142861</v>
       </c>
       <c r="G29" s="13">
-        <f>F$29-$B$29/COUNT($C$1:$I$1)</f>
+        <f t="shared" si="1"/>
         <v>14.571428571428577</v>
       </c>
       <c r="H29" s="13">
-        <f>G$29-$B$29/COUNT($C$1:$I$1)</f>
+        <f t="shared" si="1"/>
         <v>7.2857142857142909</v>
       </c>
       <c r="I29" s="14">
-        <f>H$29-$B$29/COUNT($C$1:$I$1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2503,11 +2503,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b8c59067-fb77-479b-8e53-730c573e9785" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2744,27 +2745,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b8c59067-fb77-479b-8e53-730c573e9785" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9292EE8E-C1A5-4E91-A86B-0FCDB44AD771}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b8c59067-fb77-479b-8e53-730c573e9785"/>
-    <ds:schemaRef ds:uri="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2789,9 +2780,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9292EE8E-C1A5-4E91-A86B-0FCDB44AD771}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="b8c59067-fb77-479b-8e53-730c573e9785"/>
+    <ds:schemaRef ds:uri="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements and planning/burndown_Bas-1-Azfar.xlsx
+++ b/requirements and planning/burndown_Bas-1-Azfar.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\BAS\requirements and planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Bas\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F2B37-12DE-4ABE-B3FD-E2B754886A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E727A-6CB9-47A0-BB3E-6D7A75268FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Taak</t>
   </si>
@@ -642,13 +642,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2261,8 +2261,8 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>32</v>
+      <c r="G18" s="2">
+        <v>2</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="22"/>
@@ -2278,8 +2278,8 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>32</v>
+      <c r="G19" s="2">
+        <v>2</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="22"/>
@@ -2446,15 +2446,15 @@
       </c>
       <c r="G28" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2503,15 +2503,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA27F2A826C12D4092512ECCEE8F2C5C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ae6f6b2decaabc35123e3b81013a46a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5c02209-223d-4ddb-b72b-b0c3a98178d8" xmlns:ns4="b8c59067-fb77-479b-8e53-730c573e9785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b36df08396869326f5590f0659b977c6" ns3:_="" ns4:_="">
     <xsd:import namespace="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
@@ -2744,6 +2735,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2753,14 +2753,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF973C7-F7FF-4979-8EF3-D71B5C2F748E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2775,6 +2767,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements and planning/burndown_Bas-1-Azfar.xlsx
+++ b/requirements and planning/burndown_Bas-1-Azfar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Bas\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518E727A-6CB9-47A0-BB3E-6D7A75268FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471CD0AF-4FB9-4488-8856-2D7A74576330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Taak</t>
   </si>
@@ -642,13 +642,13 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1929,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2295,8 +2295,8 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>32</v>
+      <c r="G20" s="2">
+        <v>2</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="22"/>
@@ -2313,8 +2313,8 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>32</v>
+      <c r="H21" s="2">
+        <v>2</v>
       </c>
       <c r="I21" s="22"/>
     </row>
@@ -2330,8 +2330,8 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>32</v>
+      <c r="H22" s="2">
+        <v>2</v>
       </c>
       <c r="I22" s="22"/>
     </row>
@@ -2347,8 +2347,8 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>32</v>
+      <c r="H23" s="2">
+        <v>2</v>
       </c>
       <c r="I23" s="22"/>
     </row>
@@ -2364,8 +2364,8 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
+      <c r="H24" s="2">
+        <v>2</v>
       </c>
       <c r="I24" s="22"/>
     </row>
@@ -2446,15 +2446,15 @@
       </c>
       <c r="G28" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I28" s="10">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2503,6 +2503,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA27F2A826C12D4092512ECCEE8F2C5C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ae6f6b2decaabc35123e3b81013a46a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5c02209-223d-4ddb-b72b-b0c3a98178d8" xmlns:ns4="b8c59067-fb77-479b-8e53-730c573e9785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b36df08396869326f5590f0659b977c6" ns3:_="" ns4:_="">
     <xsd:import namespace="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
@@ -2735,15 +2744,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2753,6 +2753,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF973C7-F7FF-4979-8EF3-D71B5C2F748E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2767,14 +2775,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements and planning/burndown_Bas-1-Azfar.xlsx
+++ b/requirements and planning/burndown_Bas-1-Azfar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Bas\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471CD0AF-4FB9-4488-8856-2D7A74576330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE3467A-FB89-4049-BC8C-15238A3EBA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Taak</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Query maken</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>Usecase diagram</t>
@@ -648,7 +645,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2014,7 +2011,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2133,7 +2130,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -2150,7 +2147,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -2167,7 +2164,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -2184,7 +2181,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -2382,8 +2379,8 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="22" t="s">
-        <v>32</v>
+      <c r="I25" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -2399,8 +2396,8 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="22" t="s">
-        <v>32</v>
+      <c r="I26" s="22">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2416,8 +2413,8 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="25" t="s">
-        <v>32</v>
+      <c r="I27" s="25">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -2454,7 +2451,7 @@
       </c>
       <c r="I28" s="10">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2503,15 +2500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA27F2A826C12D4092512ECCEE8F2C5C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ae6f6b2decaabc35123e3b81013a46a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5c02209-223d-4ddb-b72b-b0c3a98178d8" xmlns:ns4="b8c59067-fb77-479b-8e53-730c573e9785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b36df08396869326f5590f0659b977c6" ns3:_="" ns4:_="">
     <xsd:import namespace="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
@@ -2744,6 +2732,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2753,14 +2750,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF973C7-F7FF-4979-8EF3-D71B5C2F748E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2775,6 +2764,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/requirements and planning/burndown_Bas-1-Azfar.xlsx
+++ b/requirements and planning/burndown_Bas-1-Azfar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27823"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Bas\requirements and planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE3467A-FB89-4049-BC8C-15238A3EBA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{680B235C-A3EA-4E39-AD35-D1871003B2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D64FC014-072E-4862-83BE-4A77B874CE33}"/>
   </bookViews>
   <sheets>
     <sheet name="BurndownChart" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,124 +36,136 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+  <si>
+    <t>Punten</t>
+  </si>
   <si>
     <t>Taak</t>
   </si>
   <si>
-    <t>Punten</t>
+    <t>geschat</t>
+  </si>
+  <si>
+    <t>wk17</t>
+  </si>
+  <si>
+    <t>wk20</t>
+  </si>
+  <si>
+    <t>wk21</t>
+  </si>
+  <si>
+    <t>wk22</t>
+  </si>
+  <si>
+    <t>wk23</t>
+  </si>
+  <si>
+    <t>wk24</t>
+  </si>
+  <si>
+    <t>wk25</t>
+  </si>
+  <si>
+    <t>DoD</t>
+  </si>
+  <si>
+    <t>Usecase diagram</t>
+  </si>
+  <si>
+    <t>Burndown</t>
+  </si>
+  <si>
+    <t>Repository maken</t>
+  </si>
+  <si>
+    <t>US 1</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Database vullen</t>
+  </si>
+  <si>
+    <t>Query maken</t>
+  </si>
+  <si>
+    <t>Acceptatietesten</t>
+  </si>
+  <si>
+    <t>Wireframes</t>
+  </si>
+  <si>
+    <t>Class diagram</t>
+  </si>
+  <si>
+    <t>Unittest</t>
+  </si>
+  <si>
+    <t>US 2</t>
+  </si>
+  <si>
+    <t>US 3</t>
+  </si>
+  <si>
+    <t>US 4</t>
+  </si>
+  <si>
+    <t>US 5</t>
+  </si>
+  <si>
+    <t>US 6</t>
+  </si>
+  <si>
+    <t>US 7</t>
+  </si>
+  <si>
+    <t>US 8</t>
+  </si>
+  <si>
+    <t>US 9</t>
+  </si>
+  <si>
+    <t>US 10</t>
+  </si>
+  <si>
+    <t>US 11</t>
+  </si>
+  <si>
+    <t>US 12</t>
+  </si>
+  <si>
+    <t>US 13</t>
+  </si>
+  <si>
+    <t>US 14</t>
+  </si>
+  <si>
+    <t>inlogfunctie</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verbeterpunt </t>
+  </si>
+  <si>
+    <t>reflectieverslag</t>
+  </si>
+  <si>
+    <t>Nog doen</t>
   </si>
   <si>
     <t>Planning</t>
-  </si>
-  <si>
-    <t>geschat</t>
-  </si>
-  <si>
-    <t>Nog doen</t>
-  </si>
-  <si>
-    <t>wk17</t>
-  </si>
-  <si>
-    <t>wk20</t>
-  </si>
-  <si>
-    <t>wk21</t>
-  </si>
-  <si>
-    <t>wk22</t>
-  </si>
-  <si>
-    <t>wk23</t>
-  </si>
-  <si>
-    <t>wk24</t>
-  </si>
-  <si>
-    <t>wk25</t>
-  </si>
-  <si>
-    <t>DoD</t>
-  </si>
-  <si>
-    <t>Burndown</t>
-  </si>
-  <si>
-    <t>Repository maken</t>
-  </si>
-  <si>
-    <t>US 1</t>
-  </si>
-  <si>
-    <t>US 2</t>
-  </si>
-  <si>
-    <t>US 3</t>
-  </si>
-  <si>
-    <t>US 4</t>
-  </si>
-  <si>
-    <t>US 5</t>
-  </si>
-  <si>
-    <t>US 6</t>
-  </si>
-  <si>
-    <t>US 7</t>
-  </si>
-  <si>
-    <t>US 8</t>
-  </si>
-  <si>
-    <t>US 9</t>
-  </si>
-  <si>
-    <t>US 10</t>
-  </si>
-  <si>
-    <t>US 11</t>
-  </si>
-  <si>
-    <t>US 12</t>
-  </si>
-  <si>
-    <t>US 13</t>
-  </si>
-  <si>
-    <t>US 14</t>
-  </si>
-  <si>
-    <t>ERD</t>
-  </si>
-  <si>
-    <t>Database vullen</t>
-  </si>
-  <si>
-    <t>Query maken</t>
-  </si>
-  <si>
-    <t>Usecase diagram</t>
-  </si>
-  <si>
-    <t>Wireframes</t>
-  </si>
-  <si>
-    <t>Unittest</t>
-  </si>
-  <si>
-    <t>Class diagram</t>
-  </si>
-  <si>
-    <t>Acceptatietest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,7 +194,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -364,11 +376,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -419,6 +464,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -511,7 +573,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -536,7 +598,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$28</c:f>
+              <c:f>BurndownChart!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -619,7 +681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$28:$I$28</c:f>
+              <c:f>BurndownChart!$B$31:$I$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -645,7 +707,7 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,7 +724,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>BurndownChart!$A$29</c:f>
+              <c:f>BurndownChart!$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -745,7 +807,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>BurndownChart!$B$29:$I$29</c:f>
+              <c:f>BurndownChart!$B$32:$I$32</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
@@ -850,7 +912,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542067040"/>
@@ -909,7 +971,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1542068960"/>
@@ -961,7 +1023,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="nl-NL"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -998,7 +1060,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="nl-NL"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1569,13 +1631,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>377824</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>44449</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
@@ -1923,23 +1985,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD8170B0-2E68-477D-80A9-FF8E7DC32F40}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.45">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="17">
         <v>45408</v>
@@ -1963,38 +2025,39 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.45">
       <c r="A2" s="19" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="30"/>
+    </row>
+    <row r="3" spans="1:10" ht="14.45">
+      <c r="A3" s="21" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -2008,10 +2071,11 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="22"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.45">
       <c r="A4" s="21" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -2025,10 +2089,11 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="22"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" ht="14.45">
       <c r="A5" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>2</v>
@@ -2042,10 +2107,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="22"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="31"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.45">
       <c r="A6" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
@@ -2059,10 +2125,11 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="31"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.45">
       <c r="A7" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
@@ -2076,10 +2143,11 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="31"/>
+    </row>
+    <row r="8" spans="1:10" ht="14.45">
       <c r="A8" s="23" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>3</v>
@@ -2093,10 +2161,11 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="31"/>
+    </row>
+    <row r="9" spans="1:10" ht="14.45">
       <c r="A9" s="23" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>2</v>
@@ -2110,10 +2179,11 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.45">
       <c r="A10" s="23" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
@@ -2127,10 +2197,11 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="31"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.45">
       <c r="A11" s="23" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -2144,10 +2215,11 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="31"/>
+    </row>
+    <row r="12" spans="1:10" ht="14.45">
       <c r="A12" s="23" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
@@ -2161,10 +2233,11 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="31"/>
+    </row>
+    <row r="13" spans="1:10" ht="14.45">
       <c r="A13" s="23" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -2178,10 +2251,11 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="31"/>
+    </row>
+    <row r="14" spans="1:10" ht="14.45">
       <c r="A14" s="23" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>2</v>
@@ -2195,10 +2269,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="31"/>
+    </row>
+    <row r="15" spans="1:10" ht="14.45">
       <c r="A15" s="21" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>2</v>
@@ -2212,10 +2287,11 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="31"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.45">
       <c r="A16" s="21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>2</v>
@@ -2229,10 +2305,11 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="31"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.45">
       <c r="A17" s="21" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>2</v>
@@ -2246,10 +2323,11 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="31"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.45">
       <c r="A18" s="21" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>2</v>
@@ -2263,10 +2341,11 @@
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.45">
       <c r="A19" s="21" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2280,10 +2359,11 @@
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="31"/>
+    </row>
+    <row r="20" spans="1:10" ht="14.45">
       <c r="A20" s="21" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2297,10 +2377,11 @@
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="31"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.45">
       <c r="A21" s="21" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2314,10 +2395,11 @@
         <v>2</v>
       </c>
       <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="31"/>
+    </row>
+    <row r="22" spans="1:10" ht="14.45">
       <c r="A22" s="21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>2</v>
@@ -2331,10 +2413,11 @@
         <v>2</v>
       </c>
       <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="31"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.45">
       <c r="A23" s="21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1">
         <v>2</v>
@@ -2348,10 +2431,11 @@
         <v>2</v>
       </c>
       <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="31"/>
+    </row>
+    <row r="24" spans="1:10" ht="14.45">
       <c r="A24" s="21" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>2</v>
@@ -2365,10 +2449,11 @@
         <v>2</v>
       </c>
       <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="31"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.45">
       <c r="A25" s="21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>2</v>
@@ -2382,10 +2467,11 @@
       <c r="I25" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="21" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>2</v>
@@ -2399,10 +2485,11 @@
       <c r="I26" s="22">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="31"/>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="24" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27" s="5">
         <v>2</v>
@@ -2416,78 +2503,132 @@
       <c r="I27" s="25">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="8">
+      <c r="J27" s="31"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="27">
+        <v>2</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="27">
+        <v>2</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" s="31"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="27">
+        <v>2</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="29">
+        <v>2</v>
+      </c>
+      <c r="J30" s="31"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="8">
         <f>SUM(B3:B27)</f>
         <v>51</v>
       </c>
-      <c r="C28" s="9">
-        <f t="shared" ref="C28:I28" si="0">B$28-SUM(C3:C27)</f>
+      <c r="C31" s="9">
+        <f>B$31-SUM(C3:C27)</f>
         <v>41</v>
       </c>
-      <c r="D28" s="9">
-        <f t="shared" si="0"/>
+      <c r="D31" s="9">
+        <f>C$31-SUM(D3:D27)</f>
         <v>34</v>
       </c>
-      <c r="E28" s="9">
-        <f t="shared" si="0"/>
+      <c r="E31" s="9">
+        <f>D$31-SUM(E3:E27)</f>
         <v>24</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="0"/>
+      <c r="F31" s="9">
+        <f>E$31-SUM(F3:F27)</f>
         <v>20</v>
       </c>
-      <c r="G28" s="9">
-        <f t="shared" si="0"/>
+      <c r="G31" s="9">
+        <f>F$31-SUM(G3:G27)</f>
         <v>14</v>
       </c>
-      <c r="H28" s="9">
-        <f t="shared" si="0"/>
+      <c r="H31" s="9">
+        <f>G$31-SUM(H3:H27)</f>
         <v>6</v>
       </c>
-      <c r="I28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="12">
-        <f>B28</f>
+      <c r="I31" s="10">
+        <v>4</v>
+      </c>
+      <c r="J31" s="32"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="12">
+        <f>B31</f>
         <v>51</v>
       </c>
-      <c r="C29" s="13">
-        <f t="shared" ref="C29:I29" si="1">B$29-$B$29/COUNT($C$1:$I$1)</f>
+      <c r="C32" s="13">
+        <f>B$32-$B$32/COUNT($C$1:$I$1)</f>
         <v>43.714285714285715</v>
       </c>
-      <c r="D29" s="13">
-        <f t="shared" si="1"/>
+      <c r="D32" s="13">
+        <f>C$32-$B$32/COUNT($C$1:$I$1)</f>
         <v>36.428571428571431</v>
       </c>
-      <c r="E29" s="13">
-        <f t="shared" si="1"/>
+      <c r="E32" s="13">
+        <f>D$32-$B$32/COUNT($C$1:$I$1)</f>
         <v>29.142857142857146</v>
       </c>
-      <c r="F29" s="13">
-        <f t="shared" si="1"/>
+      <c r="F32" s="13">
+        <f>E$32-$B$32/COUNT($C$1:$I$1)</f>
         <v>21.857142857142861</v>
       </c>
-      <c r="G29" s="13">
-        <f t="shared" si="1"/>
+      <c r="G32" s="13">
+        <f>F$32-$B$32/COUNT($C$1:$I$1)</f>
         <v>14.571428571428577</v>
       </c>
-      <c r="H29" s="13">
-        <f t="shared" si="1"/>
+      <c r="H32" s="13">
+        <f>G$32-$B$32/COUNT($C$1:$I$1)</f>
         <v>7.2857142857142909</v>
       </c>
-      <c r="I29" s="14">
-        <f t="shared" si="1"/>
+      <c r="I32" s="14">
         <v>0</v>
       </c>
     </row>
@@ -2500,6 +2641,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="b8c59067-fb77-479b-8e53-730c573e9785" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA27F2A826C12D4092512ECCEE8F2C5C" ma:contentTypeVersion="15" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="ae6f6b2decaabc35123e3b81013a46a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c5c02209-223d-4ddb-b72b-b0c3a98178d8" xmlns:ns4="b8c59067-fb77-479b-8e53-730c573e9785" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b36df08396869326f5590f0659b977c6" ns3:_="" ns4:_="">
     <xsd:import namespace="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
@@ -2732,63 +2890,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="b8c59067-fb77-479b-8e53-730c573e9785" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF973C7-F7FF-4979-8EF3-D71B5C2F748E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
-    <ds:schemaRef ds:uri="b8c59067-fb77-479b-8e53-730c573e9785"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9292EE8E-C1A5-4E91-A86B-0FCDB44AD771}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC2C321F-7451-43AC-9409-3566FFDBBB5B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9292EE8E-C1A5-4E91-A86B-0FCDB44AD771}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b8c59067-fb77-479b-8e53-730c573e9785"/>
-    <ds:schemaRef ds:uri="c5c02209-223d-4ddb-b72b-b0c3a98178d8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DF973C7-F7FF-4979-8EF3-D71B5C2F748E}"/>
 </file>